--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{071F0A5A-6912-4563-BA16-BC43B5F98A0A}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -53,6 +53,15 @@
     <t>Away Team</t>
   </si>
   <si>
+    <t>Home Score</t>
+  </si>
+  <si>
+    <t>Away Score</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
     <t>Anfield</t>
   </si>
   <si>
@@ -62,6 +71,9 @@
     <t>Bournemouth</t>
   </si>
   <si>
+    <t>Home</t>
+  </si>
+  <si>
     <t>Villa Park</t>
   </si>
   <si>
@@ -69,6 +81,9 @@
   </si>
   <si>
     <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Draw</t>
   </si>
   <si>
     <t>American Express Stadium</t>
@@ -105,6 +120,9 @@
   </si>
   <si>
     <t>Man City</t>
+  </si>
+  <si>
+    <t>Away</t>
   </si>
   <si>
     <t>The City Ground</t>
@@ -172,30 +190,12 @@
   <si>
     <t>St. James' Park</t>
   </si>
-  <si>
-    <t>Home Score</t>
-  </si>
-  <si>
-    <t>Away Score</t>
-  </si>
-  <si>
-    <t>Winner</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Away</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,22 +579,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="20.100000000000001">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,16 +611,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -628,13 +628,13 @@
         <v>45884.833333333336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4">
         <v>4</v>
@@ -643,10 +643,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -654,13 +654,13 @@
         <v>45885.520833333336</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -680,13 +680,13 @@
         <v>45885.625</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -706,13 +706,13 @@
         <v>45885.625</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -732,13 +732,13 @@
         <v>45885.625</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -758,13 +758,13 @@
         <v>45885.729166666664</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -784,13 +784,13 @@
         <v>45886.583333333336</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -799,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -810,13 +810,13 @@
         <v>45886.583333333336</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -836,13 +836,13 @@
         <v>45886.6875</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -862,13 +862,13 @@
         <v>45887.833333333336</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -888,13 +888,13 @@
         <v>45891.833333333336</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -903,10 +903,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -914,13 +914,13 @@
         <v>45892.520833333336</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -940,13 +940,13 @@
         <v>45892.625</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -966,13 +966,13 @@
         <v>45892.625</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -992,13 +992,13 @@
         <v>45892.625</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1018,13 +1018,13 @@
         <v>45892.729166666664</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1044,13 +1044,13 @@
         <v>45893.583333333336</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1070,13 +1070,13 @@
         <v>45893.583333333336</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -1096,13 +1096,13 @@
         <v>45893.6875</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1122,13 +1122,13 @@
         <v>45894.833333333336</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -1137,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -1148,13 +1148,13 @@
         <v>45899.520833333336</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -1174,13 +1174,13 @@
         <v>45899.625</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F23" s="4">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -1200,13 +1200,13 @@
         <v>45899.625</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -1215,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1226,13 +1226,13 @@
         <v>45899.625</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -1252,13 +1252,13 @@
         <v>45899.625</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -1267,10 +1267,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -1278,13 +1278,13 @@
         <v>45899.729166666664</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -1304,13 +1304,13 @@
         <v>45900.583333333336</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -1319,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -1330,13 +1330,13 @@
         <v>45900.583333333336</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>3</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -1356,13 +1356,13 @@
         <v>45900.6875</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -1371,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -1382,13 +1382,13 @@
         <v>45900.791666666664</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -1408,13 +1408,13 @@
         <v>45913.520833333336</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -1434,13 +1434,13 @@
         <v>45913.625</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -1449,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="2">
         <v>4</v>
       </c>
@@ -1460,13 +1460,13 @@
         <v>45913.625</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -1486,13 +1486,13 @@
         <v>45913.625</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -1501,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -1512,13 +1512,13 @@
         <v>45913.625</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -1538,13 +1538,13 @@
         <v>45913.625</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -1564,13 +1564,13 @@
         <v>45913.729166666664</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -1590,13 +1590,13 @@
         <v>45913.833333333336</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F39" s="4">
         <v>2</v>
@@ -1605,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -1616,13 +1616,13 @@
         <v>45914.583333333336</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -1642,13 +1642,13 @@
         <v>45914.6875</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -1668,13 +1668,13 @@
         <v>45920.520833333336</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -1694,13 +1694,13 @@
         <v>45920.625</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
@@ -1709,10 +1709,10 @@
         <v>2</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -1720,13 +1720,13 @@
         <v>45920.625</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -1746,13 +1746,13 @@
         <v>45920.625</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -1761,10 +1761,10 @@
         <v>2</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -1772,13 +1772,13 @@
         <v>45920.625</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -1787,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18">
       <c r="A47" s="2">
         <v>5</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>45920.729166666664</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F47" s="4">
         <v>2</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -1824,13 +1824,13 @@
         <v>45920.833333333336</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F48" s="4">
         <v>3</v>
@@ -1839,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -1850,13 +1850,13 @@
         <v>45921.583333333336</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -1876,13 +1876,13 @@
         <v>45921.583333333336</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -1891,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18">
       <c r="A51" s="2">
         <v>5</v>
       </c>
@@ -1902,13 +1902,13 @@
         <v>45921.6875</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -1917,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18">
       <c r="A52" s="2">
         <v>6</v>
       </c>
@@ -1928,13 +1928,13 @@
         <v>45927.520833333336</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F52" s="4">
         <v>3</v>
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18">
       <c r="A53" s="2">
         <v>6</v>
       </c>
@@ -1954,13 +1954,13 @@
         <v>45927.625</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -1969,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18">
       <c r="A54" s="2">
         <v>6</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>45927.625</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
@@ -1995,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18">
       <c r="A55" s="2">
         <v>6</v>
       </c>
@@ -2006,13 +2006,13 @@
         <v>45927.625</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F55" s="4">
         <v>2</v>
@@ -2021,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18">
       <c r="A56" s="2">
         <v>6</v>
       </c>
@@ -2032,13 +2032,13 @@
         <v>45927.625</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -2047,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18">
       <c r="A57" s="2">
         <v>6</v>
       </c>
@@ -2058,13 +2058,13 @@
         <v>45927.729166666664</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18">
       <c r="A58" s="2">
         <v>6</v>
       </c>
@@ -2084,13 +2084,13 @@
         <v>45927.833333333336</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -2099,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18">
       <c r="A59" s="2">
         <v>6</v>
       </c>
@@ -2110,13 +2110,13 @@
         <v>45928.583333333336</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F59" s="2">
         <v>3</v>
@@ -2125,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18">
       <c r="A60" s="2">
         <v>6</v>
       </c>
@@ -2136,13 +2136,13 @@
         <v>45928.6875</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -2151,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -2162,19 +2162,25 @@
         <v>45929.833333333336</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -2182,19 +2188,25 @@
         <v>45933.833333333336</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2">
+        <v>3</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18">
       <c r="A63" s="2">
         <v>7</v>
       </c>
@@ -2202,19 +2214,25 @@
         <v>45934.520833333336</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18">
       <c r="A64" s="2">
         <v>7</v>
       </c>
@@ -2222,19 +2240,19 @@
         <v>45934.625</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="18">
       <c r="A65" s="2">
         <v>7</v>
       </c>
@@ -2242,19 +2260,19 @@
         <v>45934.625</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="18">
       <c r="A66" s="2">
         <v>7</v>
       </c>
@@ -2262,19 +2280,19 @@
         <v>45934.729166666664</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="18">
       <c r="A67" s="2">
         <v>7</v>
       </c>
@@ -2282,19 +2300,19 @@
         <v>45935.583333333336</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="18">
       <c r="A68" s="2">
         <v>7</v>
       </c>
@@ -2302,19 +2320,19 @@
         <v>45935.583333333336</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="18">
       <c r="A69" s="2">
         <v>7</v>
       </c>
@@ -2322,19 +2340,19 @@
         <v>45935.583333333336</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="18">
       <c r="A70" s="2">
         <v>7</v>
       </c>
@@ -2342,19 +2360,19 @@
         <v>45935.583333333336</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="18">
       <c r="A71" s="2">
         <v>7</v>
       </c>
@@ -2362,19 +2380,19 @@
         <v>45935.6875</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="18">
       <c r="A72" s="2">
         <v>8</v>
       </c>
@@ -2382,19 +2400,19 @@
         <v>45948.520833333336</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="18">
       <c r="A73" s="2">
         <v>8</v>
       </c>
@@ -2402,19 +2420,19 @@
         <v>45948.625</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="18">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -2422,19 +2440,19 @@
         <v>45948.625</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="18">
       <c r="A75" s="2">
         <v>8</v>
       </c>
@@ -2442,19 +2460,19 @@
         <v>45948.625</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="18">
       <c r="A76" s="2">
         <v>8</v>
       </c>
@@ -2462,19 +2480,19 @@
         <v>45948.625</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="18">
       <c r="A77" s="2">
         <v>8</v>
       </c>
@@ -2482,19 +2500,19 @@
         <v>45948.625</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="18">
       <c r="A78" s="2">
         <v>8</v>
       </c>
@@ -2502,19 +2520,19 @@
         <v>45948.729166666664</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="18">
       <c r="A79" s="2">
         <v>8</v>
       </c>
@@ -2522,19 +2540,19 @@
         <v>45949.583333333336</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="18">
       <c r="A80" s="2">
         <v>8</v>
       </c>
@@ -2542,19 +2560,19 @@
         <v>45949.6875</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="18">
       <c r="A81" s="2">
         <v>8</v>
       </c>
@@ -2562,19 +2580,19 @@
         <v>45950.833333333336</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="18">
       <c r="A82" s="2">
         <v>9</v>
       </c>
@@ -2582,19 +2600,19 @@
         <v>45954.833333333336</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="18">
       <c r="A83" s="2">
         <v>9</v>
       </c>
@@ -2602,19 +2620,19 @@
         <v>45955.625</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="18">
       <c r="A84" s="2">
         <v>9</v>
       </c>
@@ -2622,19 +2640,19 @@
         <v>45955.625</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="18">
       <c r="A85" s="2">
         <v>9</v>
       </c>
@@ -2642,19 +2660,19 @@
         <v>45955.729166666664</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="18">
       <c r="A86" s="2">
         <v>9</v>
       </c>
@@ -2662,19 +2680,19 @@
         <v>45955.833333333336</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="18">
       <c r="A87" s="2">
         <v>9</v>
       </c>
@@ -2682,19 +2700,19 @@
         <v>45956.583333333336</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="18">
       <c r="A88" s="2">
         <v>9</v>
       </c>
@@ -2702,19 +2720,19 @@
         <v>45956.583333333336</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="18">
       <c r="A89" s="2">
         <v>9</v>
       </c>
@@ -2722,19 +2740,19 @@
         <v>45956.583333333336</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="18">
       <c r="A90" s="2">
         <v>9</v>
       </c>
@@ -2742,19 +2760,19 @@
         <v>45956.666666666664</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="18">
       <c r="A91" s="2">
         <v>9</v>
       </c>
@@ -2762,19 +2780,19 @@
         <v>45956.6875</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="18">
       <c r="A92" s="2">
         <v>10</v>
       </c>
@@ -2782,19 +2800,19 @@
         <v>45962.625</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="18">
       <c r="A93" s="2">
         <v>10</v>
       </c>
@@ -2802,19 +2820,19 @@
         <v>45962.625</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="18">
       <c r="A94" s="2">
         <v>10</v>
       </c>
@@ -2822,19 +2840,19 @@
         <v>45962.625</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="18">
       <c r="A95" s="2">
         <v>10</v>
       </c>
@@ -2842,19 +2860,19 @@
         <v>45962.625</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="18">
       <c r="A96" s="2">
         <v>10</v>
       </c>
@@ -2862,19 +2880,19 @@
         <v>45962.625</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="18">
       <c r="A97" s="2">
         <v>10</v>
       </c>
@@ -2882,19 +2900,19 @@
         <v>45962.729166666664</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="18">
       <c r="A98" s="2">
         <v>10</v>
       </c>
@@ -2902,19 +2920,19 @@
         <v>45962.833333333336</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="18">
       <c r="A99" s="2">
         <v>10</v>
       </c>
@@ -2922,19 +2940,19 @@
         <v>45963.583333333336</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="18">
       <c r="A100" s="2">
         <v>10</v>
       </c>
@@ -2942,19 +2960,19 @@
         <v>45963.6875</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="18">
       <c r="A101" s="2">
         <v>10</v>
       </c>
@@ -2962,19 +2980,19 @@
         <v>45964.833333333336</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="18">
       <c r="A102" s="2">
         <v>11</v>
       </c>
@@ -2982,19 +3000,19 @@
         <v>45969.520833333336</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="18">
       <c r="A103" s="2">
         <v>11</v>
       </c>
@@ -3002,19 +3020,19 @@
         <v>45969.625</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="18">
       <c r="A104" s="2">
         <v>11</v>
       </c>
@@ -3022,19 +3040,19 @@
         <v>45969.625</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="18">
       <c r="A105" s="2">
         <v>11</v>
       </c>
@@ -3042,19 +3060,19 @@
         <v>45969.729166666664</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="18">
       <c r="A106" s="2">
         <v>11</v>
       </c>
@@ -3062,19 +3080,19 @@
         <v>45969.833333333336</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="18">
       <c r="A107" s="2">
         <v>11</v>
       </c>
@@ -3082,19 +3100,19 @@
         <v>45970.583333333336</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="18">
       <c r="A108" s="2">
         <v>11</v>
       </c>
@@ -3102,19 +3120,19 @@
         <v>45970.583333333336</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="18">
       <c r="A109" s="2">
         <v>11</v>
       </c>
@@ -3122,19 +3140,19 @@
         <v>45970.583333333336</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="18">
       <c r="A110" s="2">
         <v>11</v>
       </c>
@@ -3142,19 +3160,19 @@
         <v>45970.583333333336</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="18">
       <c r="A111" s="2">
         <v>11</v>
       </c>
@@ -3162,19 +3180,19 @@
         <v>45970.6875</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="18">
       <c r="A112" s="2">
         <v>12</v>
       </c>
@@ -3182,19 +3200,19 @@
         <v>45983.520833333336</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="18">
       <c r="A113" s="2">
         <v>12</v>
       </c>
@@ -3202,19 +3220,19 @@
         <v>45983.625</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="18">
       <c r="A114" s="2">
         <v>12</v>
       </c>
@@ -3222,19 +3240,19 @@
         <v>45983.625</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="18">
       <c r="A115" s="2">
         <v>12</v>
       </c>
@@ -3242,19 +3260,19 @@
         <v>45983.625</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="18">
       <c r="A116" s="2">
         <v>12</v>
       </c>
@@ -3262,19 +3280,19 @@
         <v>45983.625</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="18">
       <c r="A117" s="2">
         <v>12</v>
       </c>
@@ -3282,19 +3300,19 @@
         <v>45983.625</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="18">
       <c r="A118" s="2">
         <v>12</v>
       </c>
@@ -3302,19 +3320,19 @@
         <v>45983.729166666664</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="18">
       <c r="A119" s="2">
         <v>12</v>
       </c>
@@ -3322,19 +3340,19 @@
         <v>45984.583333333336</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="18">
       <c r="A120" s="2">
         <v>12</v>
       </c>
@@ -3342,19 +3360,19 @@
         <v>45984.6875</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="18">
       <c r="A121" s="2">
         <v>12</v>
       </c>
@@ -3362,19 +3380,19 @@
         <v>45985.833333333336</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="18">
       <c r="A122" s="2">
         <v>13</v>
       </c>
@@ -3382,19 +3400,19 @@
         <v>45990.625</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="18">
       <c r="A123" s="2">
         <v>13</v>
       </c>
@@ -3402,19 +3420,19 @@
         <v>45990.625</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="18">
       <c r="A124" s="2">
         <v>13</v>
       </c>
@@ -3422,19 +3440,19 @@
         <v>45990.625</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="18">
       <c r="A125" s="2">
         <v>13</v>
       </c>
@@ -3442,19 +3460,19 @@
         <v>45990.729166666664</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="18">
       <c r="A126" s="2">
         <v>13</v>
       </c>
@@ -3462,19 +3480,19 @@
         <v>45990.833333333336</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="18">
       <c r="A127" s="2">
         <v>13</v>
       </c>
@@ -3482,19 +3500,19 @@
         <v>45991.5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="18">
       <c r="A128" s="2">
         <v>13</v>
       </c>
@@ -3502,19 +3520,19 @@
         <v>45991.586805555555</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="18">
       <c r="A129" s="2">
         <v>13</v>
       </c>
@@ -3522,19 +3540,19 @@
         <v>45991.586805555555</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="18">
       <c r="A130" s="2">
         <v>13</v>
       </c>
@@ -3542,19 +3560,19 @@
         <v>45991.586805555555</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="18">
       <c r="A131" s="2">
         <v>13</v>
       </c>
@@ -3562,19 +3580,19 @@
         <v>45991.6875</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="18">
       <c r="A132" s="2">
         <v>14</v>
       </c>
@@ -3582,19 +3600,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="18">
       <c r="A133" s="2">
         <v>14</v>
       </c>
@@ -3602,19 +3620,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="18">
       <c r="A134" s="2">
         <v>14</v>
       </c>
@@ -3622,19 +3640,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="18">
       <c r="A135" s="2">
         <v>14</v>
       </c>
@@ -3642,19 +3660,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="18">
       <c r="A136" s="2">
         <v>14</v>
       </c>
@@ -3662,19 +3680,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="18">
       <c r="A137" s="2">
         <v>14</v>
       </c>
@@ -3682,19 +3700,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="18">
       <c r="A138" s="2">
         <v>14</v>
       </c>
@@ -3702,19 +3720,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="18">
       <c r="A139" s="2">
         <v>14</v>
       </c>
@@ -3722,19 +3740,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="18">
       <c r="A140" s="2">
         <v>14</v>
       </c>
@@ -3742,19 +3760,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="18">
       <c r="A141" s="2">
         <v>14</v>
       </c>
@@ -3762,19 +3780,19 @@
         <v>45994.833333333336</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="18">
       <c r="A142" s="2">
         <v>15</v>
       </c>
@@ -3782,19 +3800,19 @@
         <v>45997.625</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="18">
       <c r="A143" s="2">
         <v>15</v>
       </c>
@@ -3802,19 +3820,19 @@
         <v>45997.625</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="18">
       <c r="A144" s="2">
         <v>15</v>
       </c>
@@ -3822,19 +3840,19 @@
         <v>45997.625</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="18">
       <c r="A145" s="2">
         <v>15</v>
       </c>
@@ -3842,19 +3860,19 @@
         <v>45997.625</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="18">
       <c r="A146" s="2">
         <v>15</v>
       </c>
@@ -3862,19 +3880,19 @@
         <v>45997.625</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="18">
       <c r="A147" s="2">
         <v>15</v>
       </c>
@@ -3882,19 +3900,19 @@
         <v>45997.625</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="18">
       <c r="A148" s="2">
         <v>15</v>
       </c>
@@ -3902,19 +3920,19 @@
         <v>45997.625</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="18">
       <c r="A149" s="2">
         <v>15</v>
       </c>
@@ -3922,19 +3940,19 @@
         <v>45997.625</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="18">
       <c r="A150" s="2">
         <v>15</v>
       </c>
@@ -3942,19 +3960,19 @@
         <v>45997.625</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="18">
       <c r="A151" s="2">
         <v>15</v>
       </c>
@@ -3962,19 +3980,19 @@
         <v>45997.625</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="18">
       <c r="A152" s="2">
         <v>16</v>
       </c>
@@ -3982,19 +4000,19 @@
         <v>46004.625</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="18">
       <c r="A153" s="2">
         <v>16</v>
       </c>
@@ -4002,19 +4020,19 @@
         <v>46004.625</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="18">
       <c r="A154" s="2">
         <v>16</v>
       </c>
@@ -4022,19 +4040,19 @@
         <v>46004.625</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="18">
       <c r="A155" s="2">
         <v>16</v>
       </c>
@@ -4042,19 +4060,19 @@
         <v>46004.625</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="18">
       <c r="A156" s="2">
         <v>16</v>
       </c>
@@ -4062,19 +4080,19 @@
         <v>46004.625</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="18">
       <c r="A157" s="2">
         <v>16</v>
       </c>
@@ -4082,19 +4100,19 @@
         <v>46004.625</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="18">
       <c r="A158" s="2">
         <v>16</v>
       </c>
@@ -4102,19 +4120,19 @@
         <v>46004.625</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="18">
       <c r="A159" s="2">
         <v>16</v>
       </c>
@@ -4122,19 +4140,19 @@
         <v>46004.625</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="18">
       <c r="A160" s="2">
         <v>16</v>
       </c>
@@ -4142,19 +4160,19 @@
         <v>46004.625</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="18">
       <c r="A161" s="2">
         <v>16</v>
       </c>
@@ -4162,19 +4180,19 @@
         <v>46004.625</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="18">
       <c r="A162" s="2">
         <v>17</v>
       </c>
@@ -4182,19 +4200,19 @@
         <v>46011.625</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="18">
       <c r="A163" s="2">
         <v>17</v>
       </c>
@@ -4202,19 +4220,19 @@
         <v>46011.625</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="18">
       <c r="A164" s="2">
         <v>17</v>
       </c>
@@ -4222,19 +4240,19 @@
         <v>46011.625</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="18">
       <c r="A165" s="2">
         <v>17</v>
       </c>
@@ -4242,19 +4260,19 @@
         <v>46011.625</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="18">
       <c r="A166" s="2">
         <v>17</v>
       </c>
@@ -4262,19 +4280,19 @@
         <v>46011.625</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="18">
       <c r="A167" s="2">
         <v>17</v>
       </c>
@@ -4282,19 +4300,19 @@
         <v>46011.625</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="18">
       <c r="A168" s="2">
         <v>17</v>
       </c>
@@ -4302,19 +4320,19 @@
         <v>46011.625</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="18">
       <c r="A169" s="2">
         <v>17</v>
       </c>
@@ -4322,19 +4340,19 @@
         <v>46011.625</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="18">
       <c r="A170" s="2">
         <v>17</v>
       </c>
@@ -4342,19 +4360,19 @@
         <v>46011.625</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="18">
       <c r="A171" s="2">
         <v>17</v>
       </c>
@@ -4362,19 +4380,19 @@
         <v>46011.625</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="18">
       <c r="A172" s="2">
         <v>18</v>
       </c>
@@ -4382,19 +4400,19 @@
         <v>46018.625</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="18">
       <c r="A173" s="2">
         <v>18</v>
       </c>
@@ -4402,19 +4420,19 @@
         <v>46018.625</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="18">
       <c r="A174" s="2">
         <v>18</v>
       </c>
@@ -4422,19 +4440,19 @@
         <v>46018.625</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="18">
       <c r="A175" s="2">
         <v>18</v>
       </c>
@@ -4442,19 +4460,19 @@
         <v>46018.625</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="18">
       <c r="A176" s="2">
         <v>18</v>
       </c>
@@ -4462,19 +4480,19 @@
         <v>46018.625</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="18">
       <c r="A177" s="2">
         <v>18</v>
       </c>
@@ -4482,19 +4500,19 @@
         <v>46018.625</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="18">
       <c r="A178" s="2">
         <v>18</v>
       </c>
@@ -4502,19 +4520,19 @@
         <v>46018.625</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="18">
       <c r="A179" s="2">
         <v>18</v>
       </c>
@@ -4522,19 +4540,19 @@
         <v>46018.625</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="18">
       <c r="A180" s="2">
         <v>18</v>
       </c>
@@ -4542,19 +4560,19 @@
         <v>46018.625</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="18">
       <c r="A181" s="2">
         <v>18</v>
       </c>
@@ -4562,19 +4580,19 @@
         <v>46018.625</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="18">
       <c r="A182" s="2">
         <v>19</v>
       </c>
@@ -4582,19 +4600,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="18">
       <c r="A183" s="2">
         <v>19</v>
       </c>
@@ -4602,19 +4620,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="18">
       <c r="A184" s="2">
         <v>19</v>
       </c>
@@ -4622,19 +4640,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="18">
       <c r="A185" s="2">
         <v>19</v>
       </c>
@@ -4642,19 +4660,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="18">
       <c r="A186" s="2">
         <v>19</v>
       </c>
@@ -4662,19 +4680,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="18">
       <c r="A187" s="2">
         <v>19</v>
       </c>
@@ -4682,19 +4700,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="18">
       <c r="A188" s="2">
         <v>19</v>
       </c>
@@ -4702,19 +4720,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="18">
       <c r="A189" s="2">
         <v>19</v>
       </c>
@@ -4722,19 +4740,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="18">
       <c r="A190" s="2">
         <v>19</v>
       </c>
@@ -4742,19 +4760,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="18">
       <c r="A191" s="2">
         <v>19</v>
       </c>
@@ -4762,19 +4780,19 @@
         <v>46021.833333333336</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="18">
       <c r="A192" s="2">
         <v>20</v>
       </c>
@@ -4782,19 +4800,19 @@
         <v>46025.625</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="18">
       <c r="A193" s="2">
         <v>20</v>
       </c>
@@ -4802,19 +4820,19 @@
         <v>46025.625</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="18">
       <c r="A194" s="2">
         <v>20</v>
       </c>
@@ -4822,19 +4840,19 @@
         <v>46025.625</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="18">
       <c r="A195" s="2">
         <v>20</v>
       </c>
@@ -4842,19 +4860,19 @@
         <v>46025.625</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="18">
       <c r="A196" s="2">
         <v>20</v>
       </c>
@@ -4862,19 +4880,19 @@
         <v>46025.625</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="18">
       <c r="A197" s="2">
         <v>20</v>
       </c>
@@ -4882,19 +4900,19 @@
         <v>46025.625</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="18">
       <c r="A198" s="2">
         <v>20</v>
       </c>
@@ -4902,19 +4920,19 @@
         <v>46025.625</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="18">
       <c r="A199" s="2">
         <v>20</v>
       </c>
@@ -4922,19 +4940,19 @@
         <v>46025.625</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="18">
       <c r="A200" s="2">
         <v>20</v>
       </c>
@@ -4942,19 +4960,19 @@
         <v>46025.625</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="18">
       <c r="A201" s="2">
         <v>20</v>
       </c>
@@ -4962,19 +4980,19 @@
         <v>46025.625</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="18">
       <c r="A202" s="2">
         <v>21</v>
       </c>
@@ -4982,19 +5000,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="18">
       <c r="A203" s="2">
         <v>21</v>
       </c>
@@ -5002,19 +5020,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="18">
       <c r="A204" s="2">
         <v>21</v>
       </c>
@@ -5022,19 +5040,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="18">
       <c r="A205" s="2">
         <v>21</v>
       </c>
@@ -5042,19 +5060,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="18">
       <c r="A206" s="2">
         <v>21</v>
       </c>
@@ -5062,19 +5080,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="18">
       <c r="A207" s="2">
         <v>21</v>
       </c>
@@ -5082,19 +5100,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="18">
       <c r="A208" s="2">
         <v>21</v>
       </c>
@@ -5102,19 +5120,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="18">
       <c r="A209" s="2">
         <v>21</v>
       </c>
@@ -5122,19 +5140,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="18">
       <c r="A210" s="2">
         <v>21</v>
       </c>
@@ -5142,19 +5160,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="18">
       <c r="A211" s="2">
         <v>21</v>
       </c>
@@ -5162,19 +5180,19 @@
         <v>46029.833333333336</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="18">
       <c r="A212" s="2">
         <v>22</v>
       </c>
@@ -5182,19 +5200,19 @@
         <v>46039.625</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="18">
       <c r="A213" s="2">
         <v>22</v>
       </c>
@@ -5202,19 +5220,19 @@
         <v>46039.625</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="18">
       <c r="A214" s="2">
         <v>22</v>
       </c>
@@ -5222,19 +5240,19 @@
         <v>46039.625</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="18">
       <c r="A215" s="2">
         <v>22</v>
       </c>
@@ -5242,19 +5260,19 @@
         <v>46039.625</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="18">
       <c r="A216" s="2">
         <v>22</v>
       </c>
@@ -5262,19 +5280,19 @@
         <v>46039.625</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="18">
       <c r="A217" s="2">
         <v>22</v>
       </c>
@@ -5282,19 +5300,19 @@
         <v>46039.625</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="18">
       <c r="A218" s="2">
         <v>22</v>
       </c>
@@ -5302,19 +5320,19 @@
         <v>46039.625</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="18">
       <c r="A219" s="2">
         <v>22</v>
       </c>
@@ -5322,19 +5340,19 @@
         <v>46039.625</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="18">
       <c r="A220" s="2">
         <v>22</v>
       </c>
@@ -5342,19 +5360,19 @@
         <v>46039.625</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="18">
       <c r="A221" s="2">
         <v>22</v>
       </c>
@@ -5362,19 +5380,19 @@
         <v>46039.625</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="18">
       <c r="A222" s="2">
         <v>23</v>
       </c>
@@ -5382,19 +5400,19 @@
         <v>46046.625</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="18">
       <c r="A223" s="2">
         <v>23</v>
       </c>
@@ -5402,19 +5420,19 @@
         <v>46046.625</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="18">
       <c r="A224" s="2">
         <v>23</v>
       </c>
@@ -5422,19 +5440,19 @@
         <v>46046.625</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="18">
       <c r="A225" s="2">
         <v>23</v>
       </c>
@@ -5442,19 +5460,19 @@
         <v>46046.625</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="18">
       <c r="A226" s="2">
         <v>23</v>
       </c>
@@ -5462,19 +5480,19 @@
         <v>46046.625</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="18">
       <c r="A227" s="2">
         <v>23</v>
       </c>
@@ -5482,19 +5500,19 @@
         <v>46046.625</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="18">
       <c r="A228" s="2">
         <v>23</v>
       </c>
@@ -5502,19 +5520,19 @@
         <v>46046.625</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="18">
       <c r="A229" s="2">
         <v>23</v>
       </c>
@@ -5522,19 +5540,19 @@
         <v>46046.625</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="18">
       <c r="A230" s="2">
         <v>23</v>
       </c>
@@ -5542,19 +5560,19 @@
         <v>46046.625</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="18">
       <c r="A231" s="2">
         <v>23</v>
       </c>
@@ -5562,19 +5580,19 @@
         <v>46046.625</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="18">
       <c r="A232" s="2">
         <v>24</v>
       </c>
@@ -5582,19 +5600,19 @@
         <v>46053.625</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="18">
       <c r="A233" s="2">
         <v>24</v>
       </c>
@@ -5602,19 +5620,19 @@
         <v>46053.625</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="18">
       <c r="A234" s="2">
         <v>24</v>
       </c>
@@ -5622,19 +5640,19 @@
         <v>46053.625</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="18">
       <c r="A235" s="2">
         <v>24</v>
       </c>
@@ -5642,19 +5660,19 @@
         <v>46053.625</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="18">
       <c r="A236" s="2">
         <v>24</v>
       </c>
@@ -5662,19 +5680,19 @@
         <v>46053.625</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="18">
       <c r="A237" s="2">
         <v>24</v>
       </c>
@@ -5682,19 +5700,19 @@
         <v>46053.625</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="18">
       <c r="A238" s="2">
         <v>24</v>
       </c>
@@ -5702,19 +5720,19 @@
         <v>46053.625</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="18">
       <c r="A239" s="2">
         <v>24</v>
       </c>
@@ -5722,19 +5740,19 @@
         <v>46053.625</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="18">
       <c r="A240" s="2">
         <v>24</v>
       </c>
@@ -5742,19 +5760,19 @@
         <v>46053.625</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="18">
       <c r="A241" s="2">
         <v>24</v>
       </c>
@@ -5762,19 +5780,19 @@
         <v>46053.625</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="18">
       <c r="A242" s="2">
         <v>25</v>
       </c>
@@ -5782,19 +5800,19 @@
         <v>46060.625</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="18">
       <c r="A243" s="2">
         <v>25</v>
       </c>
@@ -5802,19 +5820,19 @@
         <v>46060.625</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="18">
       <c r="A244" s="2">
         <v>25</v>
       </c>
@@ -5822,19 +5840,19 @@
         <v>46060.625</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="18">
       <c r="A245" s="2">
         <v>25</v>
       </c>
@@ -5842,19 +5860,19 @@
         <v>46060.625</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="18">
       <c r="A246" s="2">
         <v>25</v>
       </c>
@@ -5862,19 +5880,19 @@
         <v>46060.625</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="18">
       <c r="A247" s="2">
         <v>25</v>
       </c>
@@ -5882,19 +5900,19 @@
         <v>46060.625</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="18">
       <c r="A248" s="2">
         <v>25</v>
       </c>
@@ -5902,19 +5920,19 @@
         <v>46060.625</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="18">
       <c r="A249" s="2">
         <v>25</v>
       </c>
@@ -5922,19 +5940,19 @@
         <v>46060.625</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="18">
       <c r="A250" s="2">
         <v>25</v>
       </c>
@@ -5942,19 +5960,19 @@
         <v>46060.625</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="18">
       <c r="A251" s="2">
         <v>25</v>
       </c>
@@ -5962,19 +5980,19 @@
         <v>46060.625</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="18">
       <c r="A252" s="2">
         <v>26</v>
       </c>
@@ -5982,19 +6000,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="18">
       <c r="A253" s="2">
         <v>26</v>
       </c>
@@ -6002,19 +6020,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="18">
       <c r="A254" s="2">
         <v>26</v>
       </c>
@@ -6022,19 +6040,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="18">
       <c r="A255" s="2">
         <v>26</v>
       </c>
@@ -6042,19 +6060,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="18">
       <c r="A256" s="2">
         <v>26</v>
       </c>
@@ -6062,19 +6080,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="18">
       <c r="A257" s="2">
         <v>26</v>
       </c>
@@ -6082,19 +6100,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="18">
       <c r="A258" s="2">
         <v>26</v>
       </c>
@@ -6102,19 +6120,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="18">
       <c r="A259" s="2">
         <v>26</v>
       </c>
@@ -6122,19 +6140,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="18">
       <c r="A260" s="2">
         <v>26</v>
       </c>
@@ -6142,19 +6160,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="18">
       <c r="A261" s="2">
         <v>26</v>
       </c>
@@ -6162,19 +6180,19 @@
         <v>46064.833333333336</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="18">
       <c r="A262" s="2">
         <v>27</v>
       </c>
@@ -6182,19 +6200,19 @@
         <v>46074.625</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="18">
       <c r="A263" s="2">
         <v>27</v>
       </c>
@@ -6202,19 +6220,19 @@
         <v>46074.625</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="18">
       <c r="A264" s="2">
         <v>27</v>
       </c>
@@ -6222,19 +6240,19 @@
         <v>46074.625</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="18">
       <c r="A265" s="2">
         <v>27</v>
       </c>
@@ -6242,19 +6260,19 @@
         <v>46074.625</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="18">
       <c r="A266" s="2">
         <v>27</v>
       </c>
@@ -6262,19 +6280,19 @@
         <v>46074.625</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="18">
       <c r="A267" s="2">
         <v>27</v>
       </c>
@@ -6282,19 +6300,19 @@
         <v>46074.625</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="18">
       <c r="A268" s="2">
         <v>27</v>
       </c>
@@ -6302,19 +6320,19 @@
         <v>46074.625</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="18">
       <c r="A269" s="2">
         <v>27</v>
       </c>
@@ -6322,19 +6340,19 @@
         <v>46074.625</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="18">
       <c r="A270" s="2">
         <v>27</v>
       </c>
@@ -6342,19 +6360,19 @@
         <v>46074.625</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="18">
       <c r="A271" s="2">
         <v>27</v>
       </c>
@@ -6362,19 +6380,19 @@
         <v>46074.625</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="18">
       <c r="A272" s="2">
         <v>28</v>
       </c>
@@ -6382,19 +6400,19 @@
         <v>46081.625</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="18">
       <c r="A273" s="2">
         <v>28</v>
       </c>
@@ -6402,19 +6420,19 @@
         <v>46081.625</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="18">
       <c r="A274" s="2">
         <v>28</v>
       </c>
@@ -6422,19 +6440,19 @@
         <v>46081.625</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="18">
       <c r="A275" s="2">
         <v>28</v>
       </c>
@@ -6442,19 +6460,19 @@
         <v>46081.625</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="18">
       <c r="A276" s="2">
         <v>28</v>
       </c>
@@ -6462,19 +6480,19 @@
         <v>46081.625</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="18">
       <c r="A277" s="2">
         <v>28</v>
       </c>
@@ -6482,19 +6500,19 @@
         <v>46081.625</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="18">
       <c r="A278" s="2">
         <v>28</v>
       </c>
@@ -6502,19 +6520,19 @@
         <v>46081.625</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="18">
       <c r="A279" s="2">
         <v>28</v>
       </c>
@@ -6522,19 +6540,19 @@
         <v>46081.625</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="18">
       <c r="A280" s="2">
         <v>28</v>
       </c>
@@ -6542,19 +6560,19 @@
         <v>46081.625</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="18">
       <c r="A281" s="2">
         <v>28</v>
       </c>
@@ -6562,19 +6580,19 @@
         <v>46081.625</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="18">
       <c r="A282" s="2">
         <v>29</v>
       </c>
@@ -6582,19 +6600,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="18">
       <c r="A283" s="2">
         <v>29</v>
       </c>
@@ -6602,19 +6620,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="18">
       <c r="A284" s="2">
         <v>29</v>
       </c>
@@ -6622,19 +6640,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="18">
       <c r="A285" s="2">
         <v>29</v>
       </c>
@@ -6642,19 +6660,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="18">
       <c r="A286" s="2">
         <v>29</v>
       </c>
@@ -6662,19 +6680,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="18">
       <c r="A287" s="2">
         <v>29</v>
       </c>
@@ -6682,19 +6700,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="18">
       <c r="A288" s="2">
         <v>29</v>
       </c>
@@ -6702,19 +6720,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="18">
       <c r="A289" s="2">
         <v>29</v>
       </c>
@@ -6722,19 +6740,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="18">
       <c r="A290" s="2">
         <v>29</v>
       </c>
@@ -6742,19 +6760,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="18">
       <c r="A291" s="2">
         <v>29</v>
       </c>
@@ -6762,19 +6780,19 @@
         <v>46085.833333333336</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="18">
       <c r="A292" s="2">
         <v>30</v>
       </c>
@@ -6782,19 +6800,19 @@
         <v>46095.625</v>
       </c>
       <c r="C292" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="18">
       <c r="A293" s="2">
         <v>30</v>
       </c>
@@ -6802,19 +6820,19 @@
         <v>46095.625</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="18">
       <c r="A294" s="2">
         <v>30</v>
       </c>
@@ -6822,19 +6840,19 @@
         <v>46095.625</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="18">
       <c r="A295" s="2">
         <v>30</v>
       </c>
@@ -6842,19 +6860,19 @@
         <v>46095.625</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="18">
       <c r="A296" s="2">
         <v>30</v>
       </c>
@@ -6862,19 +6880,19 @@
         <v>46095.625</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="18">
       <c r="A297" s="2">
         <v>30</v>
       </c>
@@ -6882,19 +6900,19 @@
         <v>46095.625</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="18">
       <c r="A298" s="2">
         <v>30</v>
       </c>
@@ -6902,19 +6920,19 @@
         <v>46095.625</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="18">
       <c r="A299" s="2">
         <v>30</v>
       </c>
@@ -6922,19 +6940,19 @@
         <v>46095.625</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="18">
       <c r="A300" s="2">
         <v>30</v>
       </c>
@@ -6942,19 +6960,19 @@
         <v>46095.625</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="18">
       <c r="A301" s="2">
         <v>30</v>
       </c>
@@ -6962,19 +6980,19 @@
         <v>46095.625</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="18">
       <c r="A302" s="2">
         <v>31</v>
       </c>
@@ -6982,19 +7000,19 @@
         <v>46102.625</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="18">
       <c r="A303" s="2">
         <v>31</v>
       </c>
@@ -7002,19 +7020,19 @@
         <v>46102.625</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="18">
       <c r="A304" s="2">
         <v>31</v>
       </c>
@@ -7022,19 +7040,19 @@
         <v>46102.625</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="18">
       <c r="A305" s="2">
         <v>31</v>
       </c>
@@ -7042,19 +7060,19 @@
         <v>46102.625</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="18">
       <c r="A306" s="2">
         <v>31</v>
       </c>
@@ -7062,19 +7080,19 @@
         <v>46102.625</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="18">
       <c r="A307" s="2">
         <v>31</v>
       </c>
@@ -7082,19 +7100,19 @@
         <v>46102.625</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="18">
       <c r="A308" s="2">
         <v>31</v>
       </c>
@@ -7102,19 +7120,19 @@
         <v>46102.625</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="18">
       <c r="A309" s="2">
         <v>31</v>
       </c>
@@ -7122,19 +7140,19 @@
         <v>46102.625</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="18">
       <c r="A310" s="2">
         <v>31</v>
       </c>
@@ -7142,19 +7160,19 @@
         <v>46102.625</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="18">
       <c r="A311" s="2">
         <v>31</v>
       </c>
@@ -7162,19 +7180,19 @@
         <v>46102.625</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="18">
       <c r="A312" s="2">
         <v>32</v>
       </c>
@@ -7182,19 +7200,19 @@
         <v>46123.625</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="18">
       <c r="A313" s="2">
         <v>32</v>
       </c>
@@ -7202,19 +7220,19 @@
         <v>46123.625</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="18">
       <c r="A314" s="2">
         <v>32</v>
       </c>
@@ -7222,19 +7240,19 @@
         <v>46123.625</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="18">
       <c r="A315" s="2">
         <v>32</v>
       </c>
@@ -7242,19 +7260,19 @@
         <v>46123.625</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D315" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E315" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="18">
       <c r="A316" s="2">
         <v>32</v>
       </c>
@@ -7262,19 +7280,19 @@
         <v>46123.625</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="18">
       <c r="A317" s="2">
         <v>32</v>
       </c>
@@ -7282,19 +7300,19 @@
         <v>46123.625</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="18">
       <c r="A318" s="2">
         <v>32</v>
       </c>
@@ -7302,19 +7320,19 @@
         <v>46123.625</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="18">
       <c r="A319" s="2">
         <v>32</v>
       </c>
@@ -7322,19 +7340,19 @@
         <v>46123.625</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="18">
       <c r="A320" s="2">
         <v>32</v>
       </c>
@@ -7342,19 +7360,19 @@
         <v>46123.625</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="18">
       <c r="A321" s="2">
         <v>32</v>
       </c>
@@ -7362,19 +7380,19 @@
         <v>46123.625</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="18">
       <c r="A322" s="2">
         <v>33</v>
       </c>
@@ -7382,19 +7400,19 @@
         <v>46130.625</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="18">
       <c r="A323" s="2">
         <v>33</v>
       </c>
@@ -7402,19 +7420,19 @@
         <v>46130.625</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="18">
       <c r="A324" s="2">
         <v>33</v>
       </c>
@@ -7422,19 +7440,19 @@
         <v>46130.625</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="18">
       <c r="A325" s="2">
         <v>33</v>
       </c>
@@ -7442,19 +7460,19 @@
         <v>46130.625</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="18">
       <c r="A326" s="2">
         <v>33</v>
       </c>
@@ -7462,19 +7480,19 @@
         <v>46130.625</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="18">
       <c r="A327" s="2">
         <v>33</v>
       </c>
@@ -7482,19 +7500,19 @@
         <v>46130.625</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="18">
       <c r="A328" s="2">
         <v>33</v>
       </c>
@@ -7502,19 +7520,19 @@
         <v>46130.625</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="18">
       <c r="A329" s="2">
         <v>33</v>
       </c>
@@ -7522,19 +7540,19 @@
         <v>46130.625</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D329" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="18">
       <c r="A330" s="2">
         <v>33</v>
       </c>
@@ -7542,19 +7560,19 @@
         <v>46130.625</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D330" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="18">
       <c r="A331" s="2">
         <v>33</v>
       </c>
@@ -7562,19 +7580,19 @@
         <v>46130.625</v>
       </c>
       <c r="C331" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="18">
       <c r="A332" s="2">
         <v>34</v>
       </c>
@@ -7582,19 +7600,19 @@
         <v>46137.625</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="18">
       <c r="A333" s="2">
         <v>34</v>
       </c>
@@ -7602,19 +7620,19 @@
         <v>46137.625</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="18">
       <c r="A334" s="2">
         <v>34</v>
       </c>
@@ -7622,19 +7640,19 @@
         <v>46137.625</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="18">
       <c r="A335" s="2">
         <v>34</v>
       </c>
@@ -7642,19 +7660,19 @@
         <v>46137.625</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="18">
       <c r="A336" s="2">
         <v>34</v>
       </c>
@@ -7662,19 +7680,19 @@
         <v>46137.625</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D336" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E336" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="18">
       <c r="A337" s="2">
         <v>34</v>
       </c>
@@ -7682,19 +7700,19 @@
         <v>46137.625</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="18">
       <c r="A338" s="2">
         <v>34</v>
       </c>
@@ -7702,19 +7720,19 @@
         <v>46137.625</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="18">
       <c r="A339" s="2">
         <v>34</v>
       </c>
@@ -7722,19 +7740,19 @@
         <v>46137.625</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="18">
       <c r="A340" s="2">
         <v>34</v>
       </c>
@@ -7742,19 +7760,19 @@
         <v>46137.625</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="18">
       <c r="A341" s="2">
         <v>34</v>
       </c>
@@ -7762,19 +7780,19 @@
         <v>46137.625</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="18">
       <c r="A342" s="2">
         <v>35</v>
       </c>
@@ -7782,19 +7800,19 @@
         <v>46144.625</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="18">
       <c r="A343" s="2">
         <v>35</v>
       </c>
@@ -7802,19 +7820,19 @@
         <v>46144.625</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="18">
       <c r="A344" s="2">
         <v>35</v>
       </c>
@@ -7822,19 +7840,19 @@
         <v>46144.625</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="18">
       <c r="A345" s="2">
         <v>35</v>
       </c>
@@ -7842,19 +7860,19 @@
         <v>46144.625</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="18">
       <c r="A346" s="2">
         <v>35</v>
       </c>
@@ -7862,19 +7880,19 @@
         <v>46144.625</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="18">
       <c r="A347" s="2">
         <v>35</v>
       </c>
@@ -7882,19 +7900,19 @@
         <v>46144.625</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="18">
       <c r="A348" s="2">
         <v>35</v>
       </c>
@@ -7902,19 +7920,19 @@
         <v>46144.625</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="18">
       <c r="A349" s="2">
         <v>35</v>
       </c>
@@ -7922,19 +7940,19 @@
         <v>46144.625</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="18">
       <c r="A350" s="2">
         <v>35</v>
       </c>
@@ -7942,19 +7960,19 @@
         <v>46144.625</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="18">
       <c r="A351" s="2">
         <v>35</v>
       </c>
@@ -7962,19 +7980,19 @@
         <v>46144.625</v>
       </c>
       <c r="C351" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E351" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E351" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="18">
       <c r="A352" s="2">
         <v>36</v>
       </c>
@@ -7982,19 +8000,19 @@
         <v>46151.625</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="18">
       <c r="A353" s="2">
         <v>36</v>
       </c>
@@ -8002,19 +8020,19 @@
         <v>46151.625</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="18">
       <c r="A354" s="2">
         <v>36</v>
       </c>
@@ -8022,19 +8040,19 @@
         <v>46151.625</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="18">
       <c r="A355" s="2">
         <v>36</v>
       </c>
@@ -8042,19 +8060,19 @@
         <v>46151.625</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="18">
       <c r="A356" s="2">
         <v>36</v>
       </c>
@@ -8062,19 +8080,19 @@
         <v>46151.625</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="18">
       <c r="A357" s="2">
         <v>36</v>
       </c>
@@ -8082,19 +8100,19 @@
         <v>46151.625</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="18">
       <c r="A358" s="2">
         <v>36</v>
       </c>
@@ -8102,19 +8120,19 @@
         <v>46151.625</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="18">
       <c r="A359" s="2">
         <v>36</v>
       </c>
@@ -8122,19 +8140,19 @@
         <v>46151.625</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="18">
       <c r="A360" s="2">
         <v>36</v>
       </c>
@@ -8142,19 +8160,19 @@
         <v>46151.625</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="18">
       <c r="A361" s="2">
         <v>36</v>
       </c>
@@ -8162,19 +8180,19 @@
         <v>46151.625</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="18">
       <c r="A362" s="2">
         <v>37</v>
       </c>
@@ -8182,19 +8200,19 @@
         <v>46159.625</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="18">
       <c r="A363" s="2">
         <v>37</v>
       </c>
@@ -8202,19 +8220,19 @@
         <v>46159.625</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D363" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E363" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="18">
       <c r="A364" s="2">
         <v>37</v>
       </c>
@@ -8222,19 +8240,19 @@
         <v>46159.625</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="18">
       <c r="A365" s="2">
         <v>37</v>
       </c>
@@ -8242,19 +8260,19 @@
         <v>46159.625</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="18">
       <c r="A366" s="2">
         <v>37</v>
       </c>
@@ -8262,19 +8280,19 @@
         <v>46159.625</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="18">
       <c r="A367" s="2">
         <v>37</v>
       </c>
@@ -8282,19 +8300,19 @@
         <v>46159.625</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="18">
       <c r="A368" s="2">
         <v>37</v>
       </c>
@@ -8302,19 +8320,19 @@
         <v>46159.625</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="18">
       <c r="A369" s="2">
         <v>37</v>
       </c>
@@ -8322,19 +8340,19 @@
         <v>46159.625</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D369" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E369" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="18">
       <c r="A370" s="2">
         <v>37</v>
       </c>
@@ -8342,19 +8360,19 @@
         <v>46159.625</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="18">
       <c r="A371" s="2">
         <v>37</v>
       </c>
@@ -8362,19 +8380,19 @@
         <v>46159.625</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="18">
       <c r="A372" s="2">
         <v>38</v>
       </c>
@@ -8382,19 +8400,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="18">
       <c r="A373" s="2">
         <v>38</v>
       </c>
@@ -8402,19 +8420,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="18">
       <c r="A374" s="2">
         <v>38</v>
       </c>
@@ -8422,19 +8440,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="18">
       <c r="A375" s="2">
         <v>38</v>
       </c>
@@ -8442,19 +8460,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="18">
       <c r="A376" s="2">
         <v>38</v>
       </c>
@@ -8462,19 +8480,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="18">
       <c r="A377" s="2">
         <v>38</v>
       </c>
@@ -8482,19 +8500,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="18">
       <c r="A378" s="2">
         <v>38</v>
       </c>
@@ -8502,19 +8520,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="18">
       <c r="A379" s="2">
         <v>38</v>
       </c>
@@ -8522,19 +8540,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="18">
       <c r="A380" s="2">
         <v>38</v>
       </c>
@@ -8542,19 +8560,19 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="18">
       <c r="A381" s="2">
         <v>38</v>
       </c>
@@ -8562,13 +8580,13 @@
         <v>46166.666666666664</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{071F0A5A-6912-4563-BA16-BC43B5F98A0A}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D079BAB9-286F-4286-9A93-0EB5019FE374}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -2248,8 +2248,12 @@
       <c r="E64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="2">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="18">
@@ -2268,9 +2272,15 @@
       <c r="E65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="F65" s="2">
+        <v>2</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="18">
       <c r="A66" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D079BAB9-286F-4286-9A93-0EB5019FE374}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF0F472-9901-4CD4-BB19-DFFD0E50506E}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2254,7 +2254,9 @@
       <c r="G64" s="2">
         <v>0</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18">
       <c r="A65" s="2">
@@ -2298,9 +2300,15 @@
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="F66" s="2">
+        <v>2</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18">
       <c r="A67" s="2">
@@ -2318,9 +2326,15 @@
       <c r="E67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18">
       <c r="A68" s="2">
@@ -2338,9 +2352,15 @@
       <c r="E68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="18">
       <c r="A69" s="2">
@@ -2358,9 +2378,15 @@
       <c r="E69" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="F69" s="2">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="18">
       <c r="A70" s="2">
@@ -2378,9 +2404,15 @@
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="18">
       <c r="A71" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF0F472-9901-4CD4-BB19-DFFD0E50506E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D49E87F-1768-4296-B539-42F0CECEECDD}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -580,7 +580,7 @@
   <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2430,9 +2430,15 @@
       <c r="E71" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="18">
       <c r="A72" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D49E87F-1768-4296-B539-42F0CECEECDD}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15831C6C-E80D-4779-AB3D-13ABA7E71DDA}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2456,9 +2456,15 @@
       <c r="E72" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="18">
       <c r="A73" s="2">
@@ -2476,9 +2482,15 @@
       <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="18">
       <c r="A74" s="2">
@@ -2496,9 +2508,15 @@
       <c r="E74" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="18">
       <c r="A75" s="2">
@@ -2516,9 +2534,15 @@
       <c r="E75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="F75" s="2">
+        <v>3</v>
+      </c>
+      <c r="G75" s="2">
+        <v>3</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="18">
       <c r="A76" s="2">
@@ -2536,9 +2560,15 @@
       <c r="E76" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="18">
       <c r="A77" s="2">
@@ -2556,9 +2586,15 @@
       <c r="E77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="F77" s="2">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="18">
       <c r="A78" s="2">
@@ -2576,9 +2612,15 @@
       <c r="E78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="18">
       <c r="A79" s="2">
@@ -2596,9 +2638,15 @@
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="18">
       <c r="A80" s="2">
@@ -2616,9 +2664,15 @@
       <c r="E80" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="18">
       <c r="A81" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15831C6C-E80D-4779-AB3D-13ABA7E71DDA}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA439524-C33B-46C7-AB41-28940331C71C}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2690,9 +2690,15 @@
       <c r="E81" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>2</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="18">
       <c r="A82" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA439524-C33B-46C7-AB41-28940331C71C}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3EC0900-7C1B-4B14-963F-D310D42FC1C0}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2716,9 +2716,15 @@
       <c r="E82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="18">
       <c r="A83" s="2">
@@ -2736,9 +2742,15 @@
       <c r="E83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>2</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="18">
       <c r="A84" s="2">
@@ -2756,9 +2768,15 @@
       <c r="E84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="F84" s="2">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="18">
       <c r="A85" s="2">
@@ -2776,9 +2794,15 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="F85" s="2">
+        <v>4</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="18">
       <c r="A86" s="2">
@@ -2796,9 +2820,15 @@
       <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="F86" s="2">
+        <v>3</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="18">
       <c r="A87" s="2">
@@ -2816,9 +2846,15 @@
       <c r="E87" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="18">
       <c r="A88" s="2">
@@ -2836,9 +2872,15 @@
       <c r="E88" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="18">
       <c r="A89" s="2">
@@ -2856,9 +2898,15 @@
       <c r="E89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="F89" s="2">
+        <v>2</v>
+      </c>
+      <c r="G89" s="2">
+        <v>3</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="18">
       <c r="A90" s="2">
@@ -2876,9 +2924,15 @@
       <c r="E90" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="18">
       <c r="A91" s="2">
@@ -2896,9 +2950,15 @@
       <c r="E91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>3</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="18">
       <c r="A92" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3EC0900-7C1B-4B14-963F-D310D42FC1C0}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF7139B-ED29-47FC-9BD9-2F3F6C7ABA87}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2976,9 +2976,15 @@
       <c r="E92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="F92" s="2">
+        <v>3</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="18">
       <c r="A93" s="2">
@@ -2996,9 +3002,15 @@
       <c r="E93" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="18">
       <c r="A94" s="2">
@@ -3016,9 +3028,15 @@
       <c r="E94" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="18">
       <c r="A95" s="2">
@@ -3036,9 +3054,15 @@
       <c r="E95" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="F95" s="2">
+        <v>3</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="18">
       <c r="A96" s="2">
@@ -3056,9 +3080,15 @@
       <c r="E96" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="18">
       <c r="A97" s="2">
@@ -3076,9 +3106,15 @@
       <c r="E97" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="18">
       <c r="A98" s="2">
@@ -3096,9 +3132,15 @@
       <c r="E98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="F98" s="2">
+        <v>2</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="18">
       <c r="A99" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF7139B-ED29-47FC-9BD9-2F3F6C7ABA87}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDF8F3B-4375-4D2F-8AAE-0809318140C7}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -3158,9 +3158,15 @@
       <c r="E99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="F99" s="2">
+        <v>3</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="18">
       <c r="A100" s="2">
@@ -3178,9 +3184,15 @@
       <c r="E100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="F100" s="2">
+        <v>3</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="18">
       <c r="A101" s="2">
@@ -3198,9 +3210,15 @@
       <c r="E101" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="18">
       <c r="A102" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDF8F3B-4375-4D2F-8AAE-0809318140C7}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E1D05D-BC04-4B84-8BCB-922266641E34}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -3236,9 +3236,15 @@
       <c r="E102" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="F102" s="2">
+        <v>2</v>
+      </c>
+      <c r="G102" s="2">
+        <v>2</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="18">
       <c r="A103" s="2">
@@ -3256,9 +3262,15 @@
       <c r="E103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="F103" s="2">
+        <v>2</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="18">
       <c r="A104" s="2">
@@ -3276,9 +3288,15 @@
       <c r="E104" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="F104" s="2">
+        <v>3</v>
+      </c>
+      <c r="G104" s="2">
+        <v>2</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="18">
       <c r="A105" s="2">
@@ -3296,9 +3314,15 @@
       <c r="E105" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="F105" s="2">
+        <v>2</v>
+      </c>
+      <c r="G105" s="2">
+        <v>2</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="18">
       <c r="A106" s="2">
@@ -3316,9 +3340,15 @@
       <c r="E106" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="F106" s="2">
+        <v>3</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="18">
       <c r="A107" s="2">
@@ -3336,9 +3366,15 @@
       <c r="E107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="F107" s="2">
+        <v>4</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="18">
       <c r="A108" s="2">
@@ -3356,9 +3392,15 @@
       <c r="E108" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="F108" s="2">
+        <v>3</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="18">
       <c r="A109" s="2">
@@ -3376,9 +3418,15 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="18">
       <c r="A110" s="2">
@@ -3396,9 +3444,15 @@
       <c r="E110" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="F110" s="2">
+        <v>3</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="18">
       <c r="A111" s="2">
@@ -3416,9 +3470,15 @@
       <c r="E111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="F111" s="2">
+        <v>3</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="18">
       <c r="A112" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E1D05D-BC04-4B84-8BCB-922266641E34}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1B317F-E4C1-4451-88B6-7C3ED8E4857F}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -3496,9 +3496,15 @@
       <c r="E112" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="18">
       <c r="A113" s="2">
@@ -3516,9 +3522,15 @@
       <c r="E113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="F113" s="2">
+        <v>2</v>
+      </c>
+      <c r="G113" s="2">
+        <v>2</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="114" spans="1:8" ht="18">
       <c r="A114" s="2">
@@ -3536,9 +3548,15 @@
       <c r="E114" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+      <c r="F114" s="2">
+        <v>2</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" spans="1:8" ht="18">
       <c r="A115" s="2">
@@ -3556,9 +3574,15 @@
       <c r="E115" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="116" spans="1:8" ht="18">
       <c r="A116" s="2">
@@ -3576,9 +3600,15 @@
       <c r="E116" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>3</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="18">
       <c r="A117" s="2">
@@ -3596,9 +3626,15 @@
       <c r="E117" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2">
+        <v>2</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="18">
       <c r="A118" s="2">
@@ -3616,9 +3652,15 @@
       <c r="E118" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+      <c r="F118" s="2">
+        <v>2</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="18">
       <c r="A119" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1B317F-E4C1-4451-88B6-7C3ED8E4857F}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9496764E-5415-4E7D-9A7B-8C561930C199}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -3678,9 +3678,15 @@
       <c r="E119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>2</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="18">
       <c r="A120" s="2">
@@ -3698,9 +3704,15 @@
       <c r="E120" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+      <c r="F120" s="2">
+        <v>4</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="18">
       <c r="A121" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9496764E-5415-4E7D-9A7B-8C561930C199}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CEB55C4-545B-4D5A-9074-5D6C26833C28}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -3730,9 +3730,15 @@
       <c r="E121" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="F121" s="2">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="18">
       <c r="A122" s="2">
@@ -3750,9 +3756,15 @@
       <c r="E122" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="F122" s="2">
+        <v>3</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="18">
       <c r="A123" s="2">
@@ -3770,9 +3782,15 @@
       <c r="E123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="F123" s="2">
+        <v>3</v>
+      </c>
+      <c r="G123" s="2">
+        <v>2</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="18">
       <c r="A124" s="2">
@@ -3790,9 +3808,15 @@
       <c r="E124" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+      <c r="F124" s="2">
+        <v>3</v>
+      </c>
+      <c r="G124" s="2">
+        <v>2</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="18">
       <c r="A125" s="2">
@@ -3810,9 +3834,15 @@
       <c r="E125" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
+        <v>4</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="18">
       <c r="A126" s="2">
@@ -3830,9 +3860,15 @@
       <c r="E126" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="F126" s="2">
+        <v>1</v>
+      </c>
+      <c r="G126" s="2">
+        <v>2</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="18">
       <c r="A127" s="2">
@@ -3850,9 +3886,15 @@
       <c r="E127" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>2</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="18">
       <c r="A128" s="2">
@@ -3870,9 +3912,15 @@
       <c r="E128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="18">
       <c r="A129" s="2">
@@ -3890,9 +3938,15 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>2</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="130" spans="1:8" ht="18">
       <c r="A130" s="2">
@@ -3910,9 +3964,15 @@
       <c r="E130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>2</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="18">
       <c r="A131" s="2">
@@ -3930,9 +3990,15 @@
       <c r="E131" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="18">
       <c r="A132" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CEB55C4-545B-4D5A-9074-5D6C26833C28}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1195D37-886E-4CA0-B0C3-088B9D575A31}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -4016,9 +4016,15 @@
       <c r="E132" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="F132" s="2">
+        <v>2</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="18">
       <c r="A133" s="2">
@@ -4036,9 +4042,15 @@
       <c r="E133" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="134" spans="1:8" ht="18">
       <c r="A134" s="2">
@@ -4056,9 +4068,15 @@
       <c r="E134" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
+      <c r="F134" s="2">
+        <v>3</v>
+      </c>
+      <c r="G134" s="2">
+        <v>4</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="135" spans="1:8" ht="18">
       <c r="A135" s="2">
@@ -4076,9 +4094,15 @@
       <c r="E135" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="18">
       <c r="A136" s="2">
@@ -4096,9 +4120,15 @@
       <c r="E136" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
+      <c r="F136" s="2">
+        <v>4</v>
+      </c>
+      <c r="G136" s="2">
+        <v>5</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="137" spans="1:8" ht="18">
       <c r="A137" s="2">
@@ -4116,9 +4146,15 @@
       <c r="E137" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
+      <c r="F137" s="2">
+        <v>3</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="138" spans="1:8" ht="18">
       <c r="A138" s="2">
@@ -4136,9 +4172,15 @@
       <c r="E138" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="18">
       <c r="A139" s="2">
@@ -4156,9 +4198,15 @@
       <c r="E139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
+      <c r="F139" s="2">
+        <v>1</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="140" spans="1:8" ht="18">
       <c r="A140" s="2">
@@ -4176,9 +4224,15 @@
       <c r="E140" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+      <c r="F140" s="2">
+        <v>2</v>
+      </c>
+      <c r="G140" s="2">
+        <v>2</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="141" spans="1:8" ht="18">
       <c r="A141" s="2">
@@ -4196,9 +4250,15 @@
       <c r="E141" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="142" spans="1:8" ht="18">
       <c r="A142" s="2">
@@ -4216,9 +4276,15 @@
       <c r="E142" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="F142" s="2">
+        <v>2</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="18">
       <c r="A143" s="2">
@@ -4236,9 +4302,15 @@
       <c r="E143" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="144" spans="1:8" ht="18">
       <c r="A144" s="2">
@@ -4256,9 +4328,15 @@
       <c r="E144" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="145" spans="1:8" ht="18">
       <c r="A145" s="2">
@@ -4276,9 +4354,15 @@
       <c r="E145" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
+      <c r="F145" s="2">
+        <v>3</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="146" spans="1:8" ht="18">
       <c r="A146" s="2">
@@ -4296,9 +4380,15 @@
       <c r="E146" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+      <c r="G146" s="2">
+        <v>2</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="18">
       <c r="A147" s="2">
@@ -4316,9 +4406,15 @@
       <c r="E147" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
+      <c r="F147" s="2">
+        <v>3</v>
+      </c>
+      <c r="G147" s="2">
+        <v>3</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="18">
       <c r="A148" s="2">
@@ -4336,9 +4432,15 @@
       <c r="E148" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
+      <c r="F148" s="2">
+        <v>3</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="18">
       <c r="A149" s="2">
@@ -4356,9 +4458,15 @@
       <c r="E149" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
+      <c r="F149" s="2">
+        <v>2</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="18">
       <c r="A150" s="2">
@@ -4376,9 +4484,15 @@
       <c r="E150" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
+      <c r="F150" s="2">
+        <v>2</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="18">
       <c r="A151" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1195D37-886E-4CA0-B0C3-088B9D575A31}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78E87B12-518D-44F0-9BDF-C11D007B807B}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -4510,9 +4510,15 @@
       <c r="E151" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2">
+        <v>4</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="18">
       <c r="A152" s="2">
@@ -4530,9 +4536,15 @@
       <c r="E152" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="F152" s="2">
+        <v>2</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="153" spans="1:8" ht="18">
       <c r="A153" s="2">
@@ -4550,9 +4562,15 @@
       <c r="E153" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="18">
       <c r="A154" s="2">
@@ -4570,9 +4588,15 @@
       <c r="E154" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+      <c r="F154" s="2">
+        <v>2</v>
+      </c>
+      <c r="G154" s="2">
+        <v>3</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="18">
       <c r="A155" s="2">
@@ -4590,9 +4614,15 @@
       <c r="E155" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="F155" s="2">
+        <v>2</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="18">
       <c r="A156" s="2">
@@ -4610,9 +4640,15 @@
       <c r="E156" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="F156" s="2">
+        <v>0</v>
+      </c>
+      <c r="G156" s="2">
+        <v>3</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="18">
       <c r="A157" s="2">
@@ -4630,9 +4666,15 @@
       <c r="E157" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
+      <c r="F157" s="2">
+        <v>2</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="18">
       <c r="A158" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78E87B12-518D-44F0-9BDF-C11D007B807B}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71FCD7C2-2D03-4EEF-AB6A-1BFEFADBC908}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -580,7 +580,7 @@
   <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H158" sqref="H158"/>
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -4692,9 +4692,15 @@
       <c r="E158" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
+      <c r="F158" s="2">
+        <v>4</v>
+      </c>
+      <c r="G158" s="2">
+        <v>4</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="18">
       <c r="A159" s="2">
@@ -4712,9 +4718,15 @@
       <c r="E159" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="F159" s="2">
+        <v>3</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="18">
       <c r="A160" s="2">
@@ -4732,9 +4744,15 @@
       <c r="E160" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
+      <c r="F160" s="2">
+        <v>1</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="18">
       <c r="A161" s="2">
@@ -4752,9 +4770,15 @@
       <c r="E161" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
+      <c r="F161" s="2">
+        <v>2</v>
+      </c>
+      <c r="G161" s="2">
+        <v>3</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="162" spans="1:8" ht="18">
       <c r="A162" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29622"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71FCD7C2-2D03-4EEF-AB6A-1BFEFADBC908}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03E421B-C67E-44CB-9D2A-E9EB920599AF}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -4796,9 +4796,15 @@
       <c r="E162" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
+      <c r="F162" s="2">
+        <v>2</v>
+      </c>
+      <c r="G162" s="2">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="163" spans="1:8" ht="18">
       <c r="A163" s="2">
@@ -4816,9 +4822,15 @@
       <c r="E163" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
+      <c r="F163" s="2">
+        <v>1</v>
+      </c>
+      <c r="G163" s="2">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="164" spans="1:8" ht="18">
       <c r="A164" s="2">
@@ -4836,9 +4848,15 @@
       <c r="E164" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="165" spans="1:8" ht="18">
       <c r="A165" s="2">
@@ -4856,9 +4874,15 @@
       <c r="E165" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+      <c r="G165" s="2">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="166" spans="1:8" ht="18">
       <c r="A166" s="2">
@@ -4876,9 +4900,15 @@
       <c r="E166" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
+      <c r="F166" s="2">
+        <v>1</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="167" spans="1:8" ht="18">
       <c r="A167" s="2">
@@ -4896,9 +4926,15 @@
       <c r="E167" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
+      <c r="F167" s="2">
+        <v>4</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="168" spans="1:8" ht="18">
       <c r="A168" s="2">
@@ -4916,9 +4952,15 @@
       <c r="E168" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
+      <c r="F168" s="2">
+        <v>3</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="18">
       <c r="A169" s="2">
@@ -4936,9 +4978,15 @@
       <c r="E169" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
+      <c r="F169" s="2">
+        <v>2</v>
+      </c>
+      <c r="G169" s="2">
+        <v>2</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="170" spans="1:8" ht="18">
       <c r="A170" s="2">
@@ -4956,9 +5004,15 @@
       <c r="E170" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
+      <c r="F170" s="2">
+        <v>1</v>
+      </c>
+      <c r="G170" s="2">
+        <v>2</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="171" spans="1:8" ht="18">
       <c r="A171" s="2">
@@ -4976,9 +5030,15 @@
       <c r="E171" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="F171" s="2">
+        <v>0</v>
+      </c>
+      <c r="G171" s="2">
+        <v>2</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="172" spans="1:8" ht="18">
       <c r="A172" s="2">
@@ -4996,9 +5056,15 @@
       <c r="E172" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="F172" s="2">
+        <v>2</v>
+      </c>
+      <c r="G172" s="2">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="18">
       <c r="A173" s="2">
@@ -5016,9 +5082,15 @@
       <c r="E173" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="F173" s="2">
+        <v>4</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="174" spans="1:8" ht="18">
       <c r="A174" s="2">
@@ -5036,9 +5108,15 @@
       <c r="E174" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="F174" s="2">
+        <v>0</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="175" spans="1:8" ht="18">
       <c r="A175" s="2">
@@ -5056,9 +5134,15 @@
       <c r="E175" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2">
+        <v>2</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="176" spans="1:8" ht="18">
       <c r="A176" s="2">
@@ -5076,9 +5160,15 @@
       <c r="E176" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="F176" s="2">
+        <v>0</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="18">
       <c r="A177" s="2">
@@ -5096,9 +5186,15 @@
       <c r="E177" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
+      <c r="F177" s="2">
+        <v>2</v>
+      </c>
+      <c r="G177" s="2">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="18">
       <c r="A178" s="2">
@@ -5116,9 +5212,15 @@
       <c r="E178" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="F178" s="2">
+        <v>1</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="18">
       <c r="A179" s="2">
@@ -5136,9 +5238,15 @@
       <c r="E179" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="F179" s="2">
+        <v>1</v>
+      </c>
+      <c r="G179" s="2">
+        <v>2</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="180" spans="1:8" ht="18">
       <c r="A180" s="2">
@@ -5156,9 +5264,15 @@
       <c r="E180" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
+      <c r="F180" s="2">
+        <v>1</v>
+      </c>
+      <c r="G180" s="2">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="181" spans="1:8" ht="18">
       <c r="A181" s="2">
@@ -5176,9 +5290,15 @@
       <c r="E181" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
+      <c r="F181" s="2">
+        <v>0</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="18">
       <c r="A182" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29622"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03E421B-C67E-44CB-9D2A-E9EB920599AF}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9254AAD1-7863-4A92-98DD-ECCD9ED57447}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -5316,9 +5316,15 @@
       <c r="E182" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
+      <c r="F182" s="2">
+        <v>4</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="18">
       <c r="A183" s="2">
@@ -5336,9 +5342,15 @@
       <c r="E183" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="F183" s="2">
+        <v>0</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="184" spans="1:8" ht="18">
       <c r="A184" s="2">
@@ -5356,9 +5368,15 @@
       <c r="E184" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+      <c r="G184" s="2">
+        <v>3</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="185" spans="1:8" ht="18">
       <c r="A185" s="2">
@@ -5376,9 +5394,15 @@
       <c r="E185" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="F185" s="2">
+        <v>2</v>
+      </c>
+      <c r="G185" s="2">
+        <v>2</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="18">
       <c r="A186" s="2">
@@ -5396,9 +5420,15 @@
       <c r="E186" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="F186" s="2">
+        <v>1</v>
+      </c>
+      <c r="G186" s="2">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="187" spans="1:8" ht="18">
       <c r="A187" s="2">
@@ -5416,9 +5446,15 @@
       <c r="E187" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="F187" s="2">
+        <v>0</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="188" spans="1:8" ht="18">
       <c r="A188" s="2">
@@ -5436,9 +5472,15 @@
       <c r="E188" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="F188" s="2">
+        <v>1</v>
+      </c>
+      <c r="G188" s="2">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="189" spans="1:8" ht="18">
       <c r="A189" s="2">
@@ -5456,9 +5498,15 @@
       <c r="E189" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="F189" s="2">
+        <v>0</v>
+      </c>
+      <c r="G189" s="2">
+        <v>2</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="18">
       <c r="A190" s="2">
@@ -5476,9 +5524,15 @@
       <c r="E190" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="F190" s="2">
+        <v>0</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="191" spans="1:8" ht="18">
       <c r="A191" s="2">
@@ -5496,9 +5550,15 @@
       <c r="E191" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="F191" s="2">
+        <v>2</v>
+      </c>
+      <c r="G191" s="2">
+        <v>2</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="192" spans="1:8" ht="18">
       <c r="A192" s="2">
@@ -5516,9 +5576,15 @@
       <c r="E192" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
+      <c r="F192" s="2">
+        <v>3</v>
+      </c>
+      <c r="G192" s="2">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="193" spans="1:8" ht="18">
       <c r="A193" s="2">
@@ -5536,9 +5602,15 @@
       <c r="E193" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
+      <c r="F193" s="2">
+        <v>2</v>
+      </c>
+      <c r="G193" s="2">
+        <v>3</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="18">
       <c r="A194" s="2">
@@ -5556,9 +5628,15 @@
       <c r="E194" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
+      <c r="F194" s="2">
+        <v>2</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="18">
       <c r="A195" s="2">
@@ -5576,9 +5654,15 @@
       <c r="E195" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
+      <c r="F195" s="2">
+        <v>2</v>
+      </c>
+      <c r="G195" s="2">
+        <v>4</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="18">
       <c r="A196" s="2">
@@ -5596,9 +5680,15 @@
       <c r="E196" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
+      <c r="F196" s="2">
+        <v>2</v>
+      </c>
+      <c r="G196" s="2">
+        <v>2</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="18">
       <c r="A197" s="2">
@@ -5616,9 +5706,15 @@
       <c r="E197" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
+      <c r="F197" s="2">
+        <v>1</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="198" spans="1:8" ht="18">
       <c r="A198" s="2">
@@ -5636,9 +5732,15 @@
       <c r="E198" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
+      <c r="F198" s="2">
+        <v>1</v>
+      </c>
+      <c r="G198" s="2">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="199" spans="1:8" ht="18">
       <c r="A199" s="2">
@@ -5656,9 +5758,15 @@
       <c r="E199" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
+      <c r="F199" s="2">
+        <v>2</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="200" spans="1:8" ht="18">
       <c r="A200" s="2">
@@ -5676,9 +5784,15 @@
       <c r="E200" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="F200" s="2">
+        <v>1</v>
+      </c>
+      <c r="G200" s="2">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="18">
       <c r="A201" s="2">
@@ -5696,9 +5810,15 @@
       <c r="E201" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
+      <c r="F201" s="2">
+        <v>3</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="202" spans="1:8" ht="18">
       <c r="A202" s="2">
@@ -5716,9 +5836,15 @@
       <c r="E202" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
+      <c r="F202" s="2">
+        <v>0</v>
+      </c>
+      <c r="G202" s="2">
+        <v>0</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="18">
       <c r="A203" s="2">
@@ -5736,9 +5862,15 @@
       <c r="E203" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="F203" s="2">
+        <v>3</v>
+      </c>
+      <c r="G203" s="2">
+        <v>2</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="204" spans="1:8" ht="18">
       <c r="A204" s="2">
@@ -5756,9 +5888,15 @@
       <c r="E204" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
+      <c r="F204" s="2">
+        <v>3</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="205" spans="1:8" ht="18">
       <c r="A205" s="2">
@@ -5776,9 +5914,15 @@
       <c r="E205" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
+      <c r="F205" s="2">
+        <v>2</v>
+      </c>
+      <c r="G205" s="2">
+        <v>2</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="206" spans="1:8" ht="18">
       <c r="A206" s="2">
@@ -5796,9 +5940,15 @@
       <c r="E206" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
+      <c r="F206" s="2">
+        <v>0</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="207" spans="1:8" ht="18">
       <c r="A207" s="2">
@@ -5816,9 +5966,15 @@
       <c r="E207" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
+      <c r="F207" s="2">
+        <v>1</v>
+      </c>
+      <c r="G207" s="2">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="208" spans="1:8" ht="18">
       <c r="A208" s="2">
@@ -5836,9 +5992,15 @@
       <c r="E208" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
+      <c r="F208" s="2">
+        <v>2</v>
+      </c>
+      <c r="G208" s="2">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="209" spans="1:8" ht="18">
       <c r="A209" s="2">
@@ -5856,9 +6018,15 @@
       <c r="E209" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
+      <c r="F209" s="2">
+        <v>1</v>
+      </c>
+      <c r="G209" s="2">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="18">
       <c r="A210" s="2">
@@ -5876,9 +6044,15 @@
       <c r="E210" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
+      <c r="F210" s="2">
+        <v>4</v>
+      </c>
+      <c r="G210" s="2">
+        <v>3</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="211" spans="1:8" ht="18">
       <c r="A211" s="2">
@@ -5896,9 +6070,15 @@
       <c r="E211" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
+      <c r="F211" s="2">
+        <v>1</v>
+      </c>
+      <c r="G211" s="2">
+        <v>2</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="212" spans="1:8" ht="18">
       <c r="A212" s="2">

--- a/premier_league_fixtures.xlsx
+++ b/premier_league_fixtures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samberry/PycharmProjects/premierLeagueGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9254AAD1-7863-4A92-98DD-ECCD9ED57447}"/>
+  <xr:revisionPtr revIDLastSave="545" documentId="8_{099F4DCF-2721-E84D-8532-FCE61C578DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82C8659A-719F-4ACE-B00F-51902C30053E}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1640" windowWidth="38400" windowHeight="20980" xr2:uid="{3010F1AF-DC38-E346-9575-FD8DC53AAFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="51">
   <si>
     <t>Round Number</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EED70-9E31-5C41-86B6-7313F33BD853}">
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="H242" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -6096,9 +6096,15 @@
       <c r="E212" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
+      <c r="F212" s="2">
+        <v>0</v>
+      </c>
+      <c r="G212" s="2">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="213" spans="1:8" ht="18">
       <c r="A213" s="2">
@@ -6116,9 +6122,15 @@
       <c r="E213" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
+      <c r="F213" s="2">
+        <v>1</v>
+      </c>
+      <c r="G213" s="2">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="18">
       <c r="A214" s="2">
@@ -6136,9 +6148,15 @@
       <c r="E214" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
+      <c r="F214" s="2">
+        <v>2</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="18">
       <c r="A215" s="2">
@@ -6156,9 +6174,15 @@
       <c r="E215" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
+      <c r="F215" s="2">
+        <v>1</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="216" spans="1:8" ht="18">
       <c r="A216" s="2">
@@ -6176,9 +6200,15 @@
       <c r="E216" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
+      <c r="F216" s="2">
+        <v>1</v>
+      </c>
+      <c r="G216" s="2">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="18">
       <c r="A217" s="2">
@@ -6196,9 +6226,15 @@
       <c r="E217" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
+      <c r="F217" s="2">
+        <v>2</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="18">
       <c r="A218" s="2">
@@ -6216,9 +6252,15 @@
       <c r="E218" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
+      <c r="F218" s="2">
+        <v>0</v>
+      </c>
+      <c r="G218" s="2">
+        <v>0</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="18">
       <c r="A219" s="2">
@@ -6236,9 +6278,15 @@
       <c r="E219" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
+      <c r="F219" s="2">
+        <v>2</v>
+      </c>
+      <c r="G219" s="2">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="220" spans="1:8" ht="18">
       <c r="A220" s="2">
@@ -6256,9 +6304,15 @@
       <c r="E220" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
+      <c r="F220" s="2">
+        <v>1</v>
+      </c>
+      <c r="G220" s="2">
+        <v>2</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="221" spans="1:8" ht="18">
       <c r="A221" s="2">
@@ -6276,9 +6330,15 @@
       <c r="E221" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
+      <c r="F221" s="2">
+        <v>0</v>
+      </c>
+      <c r="G221" s="2">
+        <v>0</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="222" spans="1:8" ht="18">
       <c r="A222" s="2">
@@ -6296,9 +6356,15 @@
       <c r="E222" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
+      <c r="F222" s="2">
+        <v>2</v>
+      </c>
+      <c r="G222" s="2">
+        <v>3</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="223" spans="1:8" ht="18">
       <c r="A223" s="2">
@@ -6316,9 +6382,15 @@
       <c r="E223" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
+      <c r="F223" s="2">
+        <v>3</v>
+      </c>
+      <c r="G223" s="2">
+        <v>2</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="224" spans="1:8" ht="18">
       <c r="A224" s="2">
@@ -6336,9 +6408,15 @@
       <c r="E224" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
+      <c r="F224" s="2">
+        <v>0</v>
+      </c>
+      <c r="G224" s="2">
+        <v>2</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="225" spans="1:8" ht="18">
       <c r="A225" s="2">
@@ -6356,9 +6434,15 @@
       <c r="E225" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
+      <c r="F225" s="2">
+        <v>2</v>
+      </c>
+      <c r="G225" s="2">
+        <v>2</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="226" spans="1:8" ht="18">
       <c r="A226" s="2">
@@ -6376,9 +6460,15 @@
       <c r="E226" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
+      <c r="F226" s="2">
+        <v>1</v>
+      </c>
+      <c r="G226" s="2">
+        <v>3</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="227" spans="1:8" ht="18">
       <c r="A227" s="2">
@@ -6396,9 +6486,15 @@
       <c r="E227" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
+      <c r="F227" s="2">
+        <v>1</v>
+      </c>
+      <c r="G227" s="2">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="228" spans="1:8" ht="18">
       <c r="A228" s="2">
@@ -6416,9 +6512,15 @@
       <c r="E228" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
+      <c r="F228" s="2">
+        <v>2</v>
+      </c>
+      <c r="G228" s="2">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="229" spans="1:8" ht="18">
       <c r="A229" s="2">
@@ -6436,9 +6538,15 @@
       <c r="E229" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
+      <c r="F229" s="2">
+        <v>2</v>
+      </c>
+      <c r="G229" s="2">
+        <v>0</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="230" spans="1:8" ht="18">
       <c r="A230" s="2">
@@ -6456,9 +6564,15 @@
       <c r="E230" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
+      <c r="F230" s="2">
+        <v>0</v>
+      </c>
+      <c r="G230" s="2">
+        <v>2</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="231" spans="1:8" ht="18">
       <c r="A231" s="2">
@@ -6476,9 +6590,15 @@
       <c r="E231" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
+      <c r="F231" s="2">
+        <v>3</v>
+      </c>
+      <c r="G231" s="2">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="232" spans="1:8" ht="18">
       <c r="A232" s="2">
@@ -6496,9 +6616,15 @@
       <c r="E232" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
+      <c r="F232" s="2">
+        <v>0</v>
+      </c>
+      <c r="G232" s="2">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="233" spans="1:8" ht="18">
       <c r="A233" s="2">
@@ -6516,9 +6642,15 @@
       <c r="E233" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
+      <c r="F233" s="2">
+        <v>1</v>
+      </c>
+      <c r="G233" s="2">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="234" spans="1:8" ht="18">
       <c r="A234" s="2">
@@ -6536,9 +6668,15 @@
       <c r="E234" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
+      <c r="F234" s="2">
+        <v>3</v>
+      </c>
+      <c r="G234" s="2">
+        <v>2</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="235" spans="1:8" ht="18">
       <c r="A235" s="2">
@@ -6556,9 +6694,15 @@
       <c r="E235" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
+      <c r="F235" s="2">
+        <v>0</v>
+      </c>
+      <c r="G235" s="2">
+        <v>4</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="236" spans="1:8" ht="18">
       <c r="A236" s="2">
@@ -6576,9 +6720,15 @@
       <c r="E236" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
+      <c r="F236" s="2">
+        <v>4</v>
+      </c>
+      <c r="G236" s="2">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="237" spans="1:8" ht="18">
       <c r="A237" s="2">
@@ -6596,9 +6746,15 @@
       <c r="E237" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
+      <c r="F237" s="2">
+        <v>3</v>
+      </c>
+      <c r="G237" s="2">
+        <v>2</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="238" spans="1:8" ht="18">
       <c r="A238" s="2">
@@ -6616,9 +6772,15 @@
       <c r="E238" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
+      <c r="F238" s="2">
+        <v>1</v>
+      </c>
+      <c r="G238" s="2">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="239" spans="1:8" ht="18">
       <c r="A239" s="2">
@@ -6636,9 +6798,15 @@
       <c r="E239" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
+      <c r="F239" s="2">
+        <v>3</v>
+      </c>
+      <c r="G239" s="2">
+        <v>0</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="240" spans="1:8" ht="18">
       <c r="A240" s="2">
@@ -6656,9 +6824,15 @@
       <c r="E240" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
+      <c r="F240" s="2">
+        <v>2</v>
+      </c>
+      <c r="G240" s="2">
+        <v>2</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="241" spans="1:8" ht="18">
       <c r="A241" s="2">
@@ -6676,9 +6850,15 @@
       <c r="E241" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
+      <c r="F241" s="2">
+        <v>0</v>
+      </c>
+      <c r="G241" s="2">
+        <v>2</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="242" spans="1:8" ht="18">
       <c r="A242" s="2">
